--- a/biology/Histoire de la zoologie et de la botanique/William_Francis_Ganong/William_Francis_Ganong.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Francis_Ganong/William_Francis_Ganong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Francis Ganong, né le 19 février 1864 à Carleton au Nouveau-Brunswick et mort le 7 septembre 1941 à Saint-Jean, est un botaniste, historien et cartographe canadien. Il passa la plus grande partie de sa carrière aux États-Unis, mais contribua de façon significative à la recherche historique et géographique au Nouveau-Brunswick.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganong consacre sa vie à des études sur le Nouveau-Brunswick, qu'il aime passionnément. Après des études à l'Université du Nouveau-Brunswick (B.A. en 1884 et M.A. en 1886), à Harvard (B.A. en 1887) et à Munich (Ph.D. en 1894), il enseigne la botanique au Smith College, à Northampton (Massachusetts), jusqu'à sa nomination comme professeur émérite au moment de sa retraite en 1932. Il passe ses étés à explorer le Nouveau-Brunswick en canot, à cartographier les cours d'eau de la province et à rédiger l'histoire des Micmacs et des Malécites, dont il apprend la langue. Il publie plus de 150 articles et ouvrages, et s'emploie à ranimer le Musée du Nouveau-Brunswick à Saint-Jean, auquel il fait don de ses écrits. Il est nommé membre à vie de la Natural History Society of New Brunswick (1915), reçoit la médaille Tyrrell de la Société royale du Canada (1931) et deux doctorats de l'Université du Nouveau-Brunswick, l'un en 1898, et l'autre en droit en 1920. De 1918 à 1939, il dirige activement l'entreprise familiale de confiserie Ganong Bros Ltd., fondée par son père James H. Ganong et son oncle Gilbert White Ganong.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Margaret E. McCallum, « William Francis Ganong » sur L'Encyclopédie canadienne en ligne</t>
         </is>
